--- a/docs/CIT_tables.xlsx
+++ b/docs/CIT_tables.xlsx
@@ -1,28 +1,118 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\228887\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B56AF4E-2A3A-4FDF-B534-52D130B849A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-53868" yWindow="-1680" windowWidth="30936" windowHeight="16896" xr2:uid="{EA73BD78-440F-4786-B093-D3C37F2D96BD}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$F$91</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="166">
   <si>
+    <t>TABLES</t>
+  </si>
+  <si>
+    <t>BUCKET</t>
+  </si>
+  <si>
+    <t>Dependency</t>
+  </si>
+  <si>
+    <t>Datasource</t>
+  </si>
+  <si>
+    <t>Datasource type</t>
+  </si>
+  <si>
+    <t>Used by CIT?</t>
+  </si>
+  <si>
     <t>pipeline_agriculturallandreserve</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/alc-alr-polygons</t>
+  </si>
+  <si>
+    <t>wms</t>
+  </si>
+  <si>
     <t>pipeline_airport</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/bc-airports</t>
+  </si>
+  <si>
     <t>pipeline_airportdistance</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Creation of opportunity</t>
+  </si>
+  <si>
+    <t>/api/opportunity/proximity/?lat=48.4237865&amp;lng=-123.3598657</t>
+  </si>
+  <si>
+    <t>CIOT</t>
+  </si>
+  <si>
     <t>pipeline_approvalstatus</t>
   </si>
   <si>
+    <t>Migration</t>
+  </si>
+  <si>
     <t>pipeline_assignments</t>
   </si>
   <si>
+    <t>When creating a user and municipality is different to 0</t>
+  </si>
+  <si>
     <t>pipeline_bcassessmentcensussubdivision</t>
   </si>
   <si>
+    <t>File Upload</t>
+  </si>
+  <si>
     <t>pipeline_bcassessmentcensussubdivision_bk</t>
   </si>
   <si>
+    <t>Backup</t>
+  </si>
+  <si>
     <t>pipeline_bcassessmenteconomicregion</t>
   </si>
   <si>
@@ -38,445 +128,205 @@
     <t>pipeline_bcnetworkconnectivity</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/bc-network-connectivity</t>
+  </si>
+  <si>
     <t>pipeline_bcwildfirezone</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/bc-wildfire-fire-zones</t>
+  </si>
+  <si>
+    <t>CIT</t>
+  </si>
+  <si>
     <t>pipeline_businessesbycsd</t>
   </si>
   <si>
+    <t>https://agriculture.canada.ca/atlas/data_donnees/businessesByCSD/data_donnees/csv/businesses_by_census_subdivision.zip</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
     <t>pipeline_cen_prof_detailed_cd_attrs_sp</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/census-profiles-for-bc-census-divisions-2021-census</t>
+  </si>
+  <si>
     <t>pipeline_cen_prof_detailed_csd_attrs_sp</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/census-profiles-for-bc-census-subdivisions-2021-census</t>
+  </si>
+  <si>
     <t>pipeline_census_division_2016</t>
   </si>
   <si>
     <t>pipeline_census_subdivision_2016</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/census-profiles-for-bc-census-subdivisions-2016-census</t>
+  </si>
+  <si>
     <t>pipeline_censuseconomicregion</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/current-census-economic-regions</t>
+  </si>
+  <si>
     <t>pipeline_civicfacility</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/civic-facilities</t>
+  </si>
+  <si>
     <t>pipeline_clinic</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/5e2707c3-0aa4-4d2d-aedc-4dd0914b686a</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
     <t>pipeline_community</t>
   </si>
   <si>
+    <t>data/COMMUNITIES_V6.csv</t>
+  </si>
+  <si>
+    <t>CIT/CIOT</t>
+  </si>
+  <si>
     <t>pipeline_communitydistance</t>
   </si>
   <si>
     <t>pipeline_connectivityinfrastructureprojects</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/ee53f7aa-d5dc-4897-b0c6-635dfe2f7e5e/resource/9967bfc7-cf2a-4873-a5ac-435048269d9b/download/connectivity-infrastructure-projects.csv</t>
+  </si>
+  <si>
     <t>pipeline_court</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/c95a2ad5-f62a-43d6-8678-80a617b6200e</t>
+  </si>
+  <si>
     <t>pipeline_customsportofentry</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/customs-ports-of-entry</t>
+  </si>
+  <si>
     <t>pipeline_customsportofentrydistance</t>
   </si>
   <si>
     <t>pipeline_datasource</t>
   </si>
   <si>
+    <t>When running buckets and importing a datasource a record is created</t>
+  </si>
+  <si>
     <t>pipeline_diagnosticfacility</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/diagnostic-facilities</t>
+  </si>
+  <si>
     <t>pipeline_emergencysocialservicefacility</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/emergency-social-services-facilities</t>
+  </si>
+  <si>
     <t>pipeline_firstresponder</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/first-responders</t>
+  </si>
+  <si>
     <t>pipeline_firstresponderdistance</t>
   </si>
   <si>
     <t>pipeline_healthauthorityboundary</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/health-authority-boundaries</t>
+  </si>
+  <si>
     <t>pipeline_hex</t>
   </si>
   <si>
+    <t>Populated when source type is "shp". Currently, no source_type using "shp"</t>
+  </si>
+  <si>
     <t>pipeline_hospital</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/383eaf98-afd7-436a-9556-67ecf14f64a7</t>
+  </si>
+  <si>
     <t>pipeline_hospitaldistance</t>
   </si>
   <si>
     <t>pipeline_housing_data</t>
   </si>
   <si>
+    <t>https://www2.gov.bc.ca/assets/gov/data/statistics/economy/building-permits/total.csv</t>
+  </si>
+  <si>
     <t>pipeline_indianreservebanddistance</t>
   </si>
   <si>
     <t>pipeline_indianreservebandname</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/indian-reserves-and-band-names-administrative-boundaries</t>
+  </si>
+  <si>
     <t>pipeline_isp</t>
   </si>
   <si>
+    <t>Empty</t>
+  </si>
+  <si>
     <t>pipeline_laboratoryservice</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/laboratory-services-in-bc</t>
+  </si>
+  <si>
     <t>pipeline_lake</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/freshwater-atlas-lakes</t>
+  </si>
+  <si>
     <t>pipeline_lakedistance</t>
   </si>
   <si>
     <t>pipeline_landusezoning</t>
   </si>
   <si>
+    <t>Migrations</t>
+  </si>
+  <si>
     <t>pipeline_linkagewithcensus</t>
   </si>
   <si>
+    <t>data/csd_linkage.csv</t>
+  </si>
+  <si>
     <t>pipeline_localgovernmentoffice</t>
   </si>
   <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/local-government-offices</t>
+  </si>
+  <si>
     <t>pipeline_location</t>
-  </si>
-  <si>
-    <t>pipeline_locationdistance</t>
-  </si>
-  <si>
-    <t>pipeline_municipality</t>
-  </si>
-  <si>
-    <t>pipeline_municipalitydistance</t>
-  </si>
-  <si>
-    <t>pipeline_naicscodes</t>
-  </si>
-  <si>
-    <t>pipeline_naturalresourceregion</t>
-  </si>
-  <si>
-    <t>pipeline_nbdphhspeeds</t>
-  </si>
-  <si>
-    <t>pipeline_opportunity</t>
-  </si>
-  <si>
-    <t>pipeline_opportunity_nearest_first_nations</t>
-  </si>
-  <si>
-    <t>pipeline_opportunity_nearest_municipalities</t>
-  </si>
-  <si>
-    <t>pipeline_opportunity_opportunity_preferred_development</t>
-  </si>
-  <si>
-    <t>pipeline_pageview</t>
-  </si>
-  <si>
-    <t>pipeline_pharmacy</t>
-  </si>
-  <si>
-    <t>pipeline_phdemographicdistribution</t>
-  </si>
-  <si>
-    <t>pipeline_portandterminal</t>
-  </si>
-  <si>
-    <t>pipeline_portandterminaldistance</t>
-  </si>
-  <si>
-    <t>pipeline_postsecondarydistance</t>
-  </si>
-  <si>
-    <t>pipeline_postsecondaryinstitution</t>
-  </si>
-  <si>
-    <t>pipeline_preferreddevelopment</t>
-  </si>
-  <si>
-    <t>pipeline_project</t>
-  </si>
-  <si>
-    <t>pipeline_propertystatus</t>
-  </si>
-  <si>
-    <t>pipeline_provincialelectoraldistrict</t>
-  </si>
-  <si>
-    <t>pipeline_publiclibrary</t>
-  </si>
-  <si>
-    <t>pipeline_railway</t>
-  </si>
-  <si>
-    <t>pipeline_railwaydistance</t>
-  </si>
-  <si>
-    <t>pipeline_regionaldistrict</t>
-  </si>
-  <si>
-    <t>pipeline_researchcentre</t>
-  </si>
-  <si>
-    <t>pipeline_researchcentredistance</t>
-  </si>
-  <si>
-    <t>pipeline_river</t>
-  </si>
-  <si>
-    <t>pipeline_riverdistance</t>
-  </si>
-  <si>
-    <t>pipeline_road</t>
-  </si>
-  <si>
-    <t>pipeline_roadsandhighways</t>
-  </si>
-  <si>
-    <t>pipeline_roadsandhighwaysdistance</t>
-  </si>
-  <si>
-    <t>pipeline_school</t>
-  </si>
-  <si>
-    <t>pipeline_schooldistrict</t>
-  </si>
-  <si>
-    <t>pipeline_schooldistrict_community</t>
-  </si>
-  <si>
-    <t>pipeline_service</t>
-  </si>
-  <si>
-    <t>pipeline_servicebclocation</t>
-  </si>
-  <si>
-    <t>pipeline_timberfacility</t>
-  </si>
-  <si>
-    <t>pipeline_tourismregion</t>
-  </si>
-  <si>
-    <t>pipeline_tsunamizone</t>
-  </si>
-  <si>
-    <t>pipeline_user</t>
-  </si>
-  <si>
-    <t>pipeline_usertracking</t>
-  </si>
-  <si>
-    <t>pipeline_wildfirezone</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>TABLES</t>
-  </si>
-  <si>
-    <t>BUCKET</t>
-  </si>
-  <si>
-    <t>Dependency</t>
-  </si>
-  <si>
-    <t>Creation of opportunity</t>
-  </si>
-  <si>
-    <t>Migration</t>
-  </si>
-  <si>
-    <t>Creation of opportunity - data obtained from keycloak</t>
-  </si>
-  <si>
-    <t>Insert User when Power BI  report is internal</t>
-  </si>
-  <si>
-    <t>No Info</t>
-  </si>
-  <si>
-    <t>Empty</t>
-  </si>
-  <si>
-    <t>Migrations</t>
-  </si>
-  <si>
-    <t>When creating a user and municipality is different to 0</t>
-  </si>
-  <si>
-    <t>When running buckets and importing a datasource a record is created</t>
-  </si>
-  <si>
-    <t>Datasource</t>
-  </si>
-  <si>
-    <t>Datasource type</t>
-  </si>
-  <si>
-    <t>wms</t>
-  </si>
-  <si>
-    <t>https://agriculture.canada.ca/atlas/data_donnees/businessesByCSD/data_donnees/csv/businesses_by_census_subdivision.zip</t>
-  </si>
-  <si>
-    <t>csv</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/census-profiles-for-bc-census-divisions-2021-census</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/census-profiles-for-bc-census-subdivisions-2021-census</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/census-profiles-for-bc-census-subdivisions-2016-census</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/current-census-economic-regions</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/civic-facilities</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/5e2707c3-0aa4-4d2d-aedc-4dd0914b686a</t>
-  </si>
-  <si>
-    <t>api</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/bc-wildfire-fire-zones</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/bc-airports</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/alc-alr-polygons</t>
-  </si>
-  <si>
-    <t>data/COMMUNITIES_V6.csv</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/ee53f7aa-d5dc-4897-b0c6-635dfe2f7e5e/resource/9967bfc7-cf2a-4873-a5ac-435048269d9b/download/connectivity-infrastructure-projects.csv</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/c95a2ad5-f62a-43d6-8678-80a617b6200e</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/customs-ports-of-entry</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/diagnostic-facilities</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/emergency-social-services-facilities</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/first-responders</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/health-authority-boundaries</t>
-  </si>
-  <si>
-    <t>Populated when source type is "shp". Currently, no source_type using "shp"</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/383eaf98-afd7-436a-9556-67ecf14f64a7</t>
-  </si>
-  <si>
-    <t>https://www2.gov.bc.ca/assets/gov/data/statistics/economy/building-permits/total.csv</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/indian-reserves-and-band-names-administrative-boundaries</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/laboratory-services-in-bc</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/freshwater-atlas-lakes</t>
-  </si>
-  <si>
-    <t>data/csd_linkage.csv</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/local-government-offices</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/municipalities-legally-defined-administrative-areas-of-bc</t>
-  </si>
-  <si>
-    <t>https://www.statcan.gc.ca/eng/statistical-programs/document/naics-scian-2022-structure-v1-eng.csv</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/natural-resource-nr-regions</t>
-  </si>
-  <si>
-    <t>https://www.ic.gc.ca/eic/site/720.nsf/vwapj/NBD_PHH_Speeds.zip/$file/NBD_PHH_Speeds.zip</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/after-hours-pharmacies-in-bc</t>
-  </si>
-  <si>
-    <t>https://www.ic.gc.ca/eic/site/720.nsf/vwapj/PHH-BC.csv/$file/PHH-BC.csv</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/bc-ports-and-terminals</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/81558d54-1f96-46c2-94fe-56d26f69c4f5</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/major-projects-inventory-economic-points</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/provincial-electoral-districts-electoral-boundaries-redistribution-2015</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/bc-public-libraries-systems-branches-and-locations</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/railway-track-line</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/regional-districts-legally-defined-administrative-areas-of-bc</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/7859ae46-2aa1-47ee-a05b-7d0daa472678</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/freshwater-atlas-rivers</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/digital-road-atlas-dra-master-partially-attributed-roads</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/95da1091-7e8c-4aa6-9c1b-5ab159ea7b42</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/school-districts-of-bc</t>
-  </si>
-  <si>
-    <t>https://www.ic.gc.ca/eic/site/720.nsf/vwapj/Map_Data_CSV.zip/$file/Map_Data_CSV.zip</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/2b44d212-5438-47a9-ad23-20eb8ada9709</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/british-columbia-major-timber-processing-facilities</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/bc-tourism-regions</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/tsunami-notification-zones-for-bc</t>
-  </si>
-  <si>
-    <t>/api/opportunity/proximity/?lat=48.4237865&amp;lng=-123.3598657</t>
-  </si>
-  <si>
-    <t>File Upload</t>
   </si>
   <si>
     <t xml:space="preserve">Populated when running bucket 3: pipeline_community
@@ -486,29 +336,218 @@
 </t>
   </si>
   <si>
-    <t>Backup</t>
-  </si>
-  <si>
-    <t>https://catalogue.data.gov.bc.ca/dataset/bc-network-connectivity</t>
-  </si>
-  <si>
-    <t>CIT</t>
-  </si>
-  <si>
-    <t>CIT/CIOT</t>
-  </si>
-  <si>
-    <t>CIOT</t>
-  </si>
-  <si>
-    <t>Usage by app</t>
+    <t>pipeline_locationdistance</t>
+  </si>
+  <si>
+    <t>pipeline_municipality</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/municipalities-legally-defined-administrative-areas-of-bc</t>
+  </si>
+  <si>
+    <t>pipeline_municipalitydistance</t>
+  </si>
+  <si>
+    <t>pipeline_naicscodes</t>
+  </si>
+  <si>
+    <t>https://www.statcan.gc.ca/eng/statistical-programs/document/naics-scian-2022-structure-v1-eng.csv</t>
+  </si>
+  <si>
+    <t>pipeline_naturalresourceregion</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/natural-resource-nr-regions</t>
+  </si>
+  <si>
+    <t>pipeline_nbdphhspeeds</t>
+  </si>
+  <si>
+    <t>https://www.ic.gc.ca/eic/site/720.nsf/vwapj/NBD_PHH_Speeds.zip/$file/NBD_PHH_Speeds.zip</t>
+  </si>
+  <si>
+    <t>pipeline_opportunity</t>
+  </si>
+  <si>
+    <t>pipeline_opportunity_nearest_first_nations</t>
+  </si>
+  <si>
+    <t>pipeline_opportunity_nearest_municipalities</t>
+  </si>
+  <si>
+    <t>pipeline_opportunity_opportunity_preferred_development</t>
+  </si>
+  <si>
+    <t>pipeline_pageview</t>
+  </si>
+  <si>
+    <t>pipeline_pharmacy</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/after-hours-pharmacies-in-bc</t>
+  </si>
+  <si>
+    <t>pipeline_phdemographicdistribution</t>
+  </si>
+  <si>
+    <t>https://www.ic.gc.ca/eic/site/720.nsf/vwapj/PHH-BC.csv/$file/PHH-BC.csv</t>
+  </si>
+  <si>
+    <t>pipeline_portandterminal</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/bc-ports-and-terminals</t>
+  </si>
+  <si>
+    <t>pipeline_portandterminaldistance</t>
+  </si>
+  <si>
+    <t>pipeline_postsecondarydistance</t>
+  </si>
+  <si>
+    <t>pipeline_postsecondaryinstitution</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/81558d54-1f96-46c2-94fe-56d26f69c4f5</t>
+  </si>
+  <si>
+    <t>pipeline_preferreddevelopment</t>
+  </si>
+  <si>
+    <t>pipeline_project</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/major-projects-inventory-economic-points</t>
+  </si>
+  <si>
+    <t>pipeline_propertystatus</t>
+  </si>
+  <si>
+    <t>pipeline_provincialelectoraldistrict</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/provincial-electoral-districts-electoral-boundaries-redistribution-2015</t>
+  </si>
+  <si>
+    <t>pipeline_publiclibrary</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/bc-public-libraries-systems-branches-and-locations</t>
+  </si>
+  <si>
+    <t>pipeline_railway</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/railway-track-line</t>
+  </si>
+  <si>
+    <t>pipeline_railwaydistance</t>
+  </si>
+  <si>
+    <t>pipeline_regionaldistrict</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/regional-districts-legally-defined-administrative-areas-of-bc</t>
+  </si>
+  <si>
+    <t>pipeline_researchcentre</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/7859ae46-2aa1-47ee-a05b-7d0daa472678</t>
+  </si>
+  <si>
+    <t>pipeline_researchcentredistance</t>
+  </si>
+  <si>
+    <t>pipeline_river</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/freshwater-atlas-rivers</t>
+  </si>
+  <si>
+    <t>pipeline_riverdistance</t>
+  </si>
+  <si>
+    <t>pipeline_road</t>
+  </si>
+  <si>
+    <t>pipeline_roadsandhighways</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/digital-road-atlas-dra-master-partially-attributed-roads</t>
+  </si>
+  <si>
+    <t>pipeline_roadsandhighwaysdistance</t>
+  </si>
+  <si>
+    <t>pipeline_school</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/95da1091-7e8c-4aa6-9c1b-5ab159ea7b42</t>
+  </si>
+  <si>
+    <t>pipeline_schooldistrict</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/school-districts-of-bc</t>
+  </si>
+  <si>
+    <t>pipeline_schooldistrict_community</t>
+  </si>
+  <si>
+    <t>No Info</t>
+  </si>
+  <si>
+    <t>pipeline_service</t>
+  </si>
+  <si>
+    <t>https://www.ic.gc.ca/eic/site/720.nsf/vwapj/Map_Data_CSV.zip/$file/Map_Data_CSV.zip</t>
+  </si>
+  <si>
+    <t>pipeline_servicebclocation</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/2b44d212-5438-47a9-ad23-20eb8ada9709</t>
+  </si>
+  <si>
+    <t>pipeline_timberfacility</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/british-columbia-major-timber-processing-facilities</t>
+  </si>
+  <si>
+    <t>pipeline_tourismregion</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/bc-tourism-regions</t>
+  </si>
+  <si>
+    <t>pipeline_tsunamizone</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/tsunami-notification-zones-for-bc</t>
+  </si>
+  <si>
+    <t>pipeline_user</t>
+  </si>
+  <si>
+    <t>Creation of opportunity - data obtained from keycloak</t>
+  </si>
+  <si>
+    <t>pipeline_usertracking</t>
+  </si>
+  <si>
+    <t>Insert User when Power BI  report is internal</t>
+  </si>
+  <si>
+    <t>pipeline_wildfirezone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -600,7 +639,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -918,1373 +956,1373 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9363D7-C8B9-4455-9A01-5B71CB25A3EB}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="53.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="159.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="159.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="5" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="5" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="7"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
         <v>7</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="5" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
         <v>7</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="5" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="5" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="8"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="5" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1">
         <v>5</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="5" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1">
         <v>5</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1">
         <v>5</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="7"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B36" s="1">
         <v>5</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6">
       <c r="A37" s="6" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="5" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="7"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B42" s="1">
         <v>5</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B43" s="1">
         <v>4</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="7"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2">
         <v>7</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B47" s="1">
         <v>5</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="5" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="7"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1">
         <v>2</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="B53" s="1">
         <v>4</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>2</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="5" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="B55" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="7"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B60" s="1">
         <v>5</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="5" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B61" s="1">
         <v>2</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="5" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B62" s="1">
         <v>5</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="5" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B65" s="1">
         <v>4</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="7"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="B67" s="1">
         <v>5</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="5" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B69" s="1">
         <v>4</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2">
         <v>5</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="5" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="B71" s="1">
         <v>4</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="B73" s="1">
         <v>2</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="5" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="B74" s="2">
         <v>4</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="B76" s="2">
         <v>4</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="7"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="B79" s="2">
         <v>4</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="B81" s="2">
         <v>5</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="B82" s="2">
         <v>2</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="3" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="7"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="B84" s="2">
         <v>4</v>
@@ -2294,119 +2332,119 @@
         <v>152</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="B85" s="2">
         <v>5</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="B86" s="2">
         <v>5</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="B87" s="2">
         <v>2</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="B88" s="2">
         <v>2</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="7"/>
       <c r="F89" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="7"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="B91" s="2">
         <v>7</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="5" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F91" s="1"/>
     </row>
